--- a/数据整理/stocks/A股/创业板/300639-凯普生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300639-凯普生物.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001040</t>
+          <t>519087</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>新华策略精选股票</t>
+          <t>新华优选分红混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>92.75</t>
+          <t>15.48</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>7.05</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
+          <t>87.80</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.9025</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005043</t>
+          <t>519156</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国寿安保健康科学混合A</t>
+          <t>新华行业轮换灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>92.20</t>
+          <t>10.29</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>89.44</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6606</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005044</t>
+          <t>001040</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国寿安保健康科学混合C</t>
+          <t>新华策略精选股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>92.20</t>
+          <t>8.55</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6028</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>519087</t>
+          <t>005632</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>新华优选分红混合</t>
+          <t>鹏华量化先锋混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>87.80</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.83</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>3</v>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -604,25 +654,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002210</t>
+          <t>005043</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>创金合信量化多因子股票A</t>
+          <t>国寿安保健康科学混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>89.50</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>10</v>
       </c>
     </row>
@@ -632,25 +692,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>003865</t>
+          <t>005044</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>创金合信量化多因子股票C</t>
+          <t>国寿安保健康科学混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>89.50</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>10</v>
       </c>
     </row>
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>519156</t>
+          <t>002210</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>新华行业轮换灵活配置混合A</t>
+          <t>创金合信量化多因子股票A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>89.44</t>
+          <t>2.46</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>6.42</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>2</v>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -698,15 +778,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>89.44</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>6.42</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>2</v>
       </c>
     </row>
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005632</t>
+          <t>003865</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>鹏华量化先锋混合</t>
+          <t>创金合信量化多因子股票C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>92.76</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1.64</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>7</v>
+          <t>89.50</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -749,7 +849,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -770,15 +870,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -790,26 +900,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003582</t>
+          <t>000727</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中金量化多策略灵活配置混合</t>
+          <t>融通健康产业灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>52.30</t>
+          <t>14.82</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8507</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -818,25 +938,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004250</t>
+          <t>519087</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>银河量化优选混合</t>
+          <t>新华优选分红混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>90.01</t>
+          <t>13.36</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.47</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6440</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
       </c>
     </row>
@@ -846,25 +976,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005005</t>
+          <t>001040</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中金金泽量化精选混合A</t>
+          <t>新华策略精选股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>51.63</t>
+          <t>6.39</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3725</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>3</v>
       </c>
     </row>
@@ -874,25 +1014,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005006</t>
+          <t>006277</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中金金泽量化精选混合C</t>
+          <t>中金瑞和灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>51.63</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
+          <t>61.09</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0887</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>3</v>
       </c>
     </row>
@@ -902,26 +1052,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006277</t>
+          <t>005632</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中金瑞和灵活配置混合A</t>
+          <t>鹏华量化先锋混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>61.09</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.31</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>3</v>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>006278</t>
+          <t>005043</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中金瑞和灵活配置混合C</t>
+          <t>国寿安保健康科学混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>61.09</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.31</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>3</v>
+          <t>82.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001040</t>
+          <t>009274</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>新华策略精选股票</t>
+          <t>融通健康产业灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>94.55</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5.83</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>3</v>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -986,26 +1166,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005632</t>
+          <t>005044</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>鹏华量化先锋混合</t>
+          <t>国寿安保健康科学混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>92.77</t>
+          <t>0.89</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>1</v>
+          <t>82.77</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1014,25 +1204,35 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>006193</t>
+          <t>003582</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>鑫元核心资产股票A</t>
+          <t>中金量化多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>85.54</t>
+          <t>1.23</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
+          <t>52.30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>006194</t>
+          <t>008072</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>鑫元核心资产股票C</t>
+          <t>景顺长城创业板综指增强</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>85.54</t>
+          <t>1.00</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2.93</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>000727</t>
+          <t>006278</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>融通健康产业灵活配置混合A</t>
+          <t>中金瑞和灵活配置混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>94.45</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>5.74</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>7</v>
+          <t>61.09</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>009274</t>
+          <t>004250</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>融通健康产业灵活配置混合C</t>
+          <t>银河量化优选混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>94.45</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>5.74</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>7</v>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -1126,26 +1356,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>519087</t>
+          <t>006193</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>新华优选分红混合</t>
+          <t>鑫元核心资产股票A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>88.32</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4.82</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>5</v>
+          <t>85.54</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -1154,26 +1394,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>005043</t>
+          <t>005005</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>国寿安保健康科学混合A</t>
+          <t>中金金泽量化精选混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>82.77</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>7</v>
+          <t>51.63</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>005044</t>
+          <t>005006</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>国寿安保健康科学混合C</t>
+          <t>中金金泽量化精选混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>82.77</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>7</v>
+          <t>51.63</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>008072</t>
+          <t>006194</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>景顺长城创业板综指增强</t>
+          <t>鑫元核心资产股票C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>93.47</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>7</v>
+          <t>85.54</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300639-凯普生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300639-凯普生物.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1505,4 +1506,782 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519087</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>新华优选分红混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7598</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000727</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6016</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001040</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>新华策略精选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4467</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519156</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1982</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>550001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信诚四季红混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1911</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011457</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>新华行业龙头主题股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0934</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005632</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华量化先锋混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0582</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002252</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>融通成长30灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005043</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.89</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0495</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161039</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国中证1000指数增强LOF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005044</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.89</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009274</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>融通健康产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0340</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005457</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景顺长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009502</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国寿安保创新医药股票A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>008072</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>景顺长城创业板综指增强</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004194</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>004195</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009503</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国寿安保创新医药股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519157</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300639-凯普生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300639-凯普生物.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2284,4 +2285,402 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>460009</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.04</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1382</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005313</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0627</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005632</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华量化先锋混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0519</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005314</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>万家中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161037</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国中证高端制造指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005055</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化阿尔法灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008072</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城创业板综指增强</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010246</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化先行混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.65</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006532</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化阿尔法灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300639-凯普生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300639-凯普生物.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2683,4 +2684,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>19</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300639-凯普生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300639-凯普生物.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2692,7 +2693,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2703,17 +2704,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2723,14 +2744,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>001637</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实腾讯自选股大数据策略股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.48</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1128</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="3">
@@ -2739,14 +2834,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>2.66</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="4">
@@ -2755,14 +2850,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D4" t="n">
-        <v>2.17</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="5">
@@ -2771,13 +2866,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>16</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>9</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>2.28</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300639-凯普生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300639-凯普生物.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2787,7 +2788,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2798,17 +2799,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2818,14 +2839,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.11</v>
+          <t>008297</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发价值优势混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>28.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4803</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2834,14 +2877,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.4</v>
+          <t>270022</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发内需增长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.56</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8024</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2850,14 +2915,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>19</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.66</v>
+          <t>011134</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发价值优选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3531</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -2866,14 +2953,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>16</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.17</v>
+          <t>011135</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发价值优选混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0823</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -2882,13 +2991,281 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>005043</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0262</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005044</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011183</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.56</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003366</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>浙商汇金中证转型成长指数</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>19</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>16</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>9</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>2.28</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300639-凯普生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300639-凯普生物.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3148,7 +3149,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3159,17 +3160,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3179,14 +3200,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.77</v>
+          <t>001917</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>招商量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0506</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -3195,14 +3238,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.11</v>
+          <t>519677</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银河定投宝中证腾讯济安价值100A股指数</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -3211,14 +3276,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>007950</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.77</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.4</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="5">
@@ -3227,14 +3398,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>2.66</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="6">
@@ -3243,14 +3414,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D6" t="n">
-        <v>2.17</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="7">
@@ -3259,13 +3430,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>16</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>9</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>2.28</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300639-凯普生物.xlsx
+++ b/数据整理/stocks/A股/创业板/300639-凯普生物.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>2.77</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>0.11</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>2.66</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D7" t="n">
-        <v>2.17</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>16</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.17</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>9</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>2.28</v>
       </c>
     </row>
@@ -600,6 +617,214 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005457</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>景顺长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0742</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008851</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城量化对冲策略三个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>71.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>015496</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>015495</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>景顺中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -769,7 +994,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1129,7 +1354,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1223,7 +1448,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1621,7 +1846,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2399,7 +2624,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3063,7 +3288,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
